--- a/data/base_actualizada.xlsx
+++ b/data/base_actualizada.xlsx
@@ -408,7 +408,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1001"/>
+  <dimension ref="A1:M1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8470,59 +8470,169 @@
       <c r="F1000" s="1" t="n"/>
     </row>
     <row r="1001">
-      <c r="A1001" t="inlineStr"/>
-      <c r="B1001" t="inlineStr">
+      <c r="A1001" s="0" t="inlineStr"/>
+      <c r="B1001" s="0" t="inlineStr">
         <is>
           <t>Jennifer SAS</t>
         </is>
       </c>
-      <c r="C1001" t="inlineStr">
+      <c r="C1001" s="0" t="inlineStr">
         <is>
           <t>Servicios</t>
         </is>
       </c>
-      <c r="D1001" t="inlineStr">
+      <c r="D1001" s="0" t="inlineStr">
         <is>
           <t>Servicios</t>
         </is>
       </c>
-      <c r="E1001" t="inlineStr">
+      <c r="E1001" s="0" t="inlineStr">
         <is>
           <t>asesorias,</t>
         </is>
       </c>
-      <c r="F1001" t="inlineStr">
+      <c r="F1001" s="0" t="inlineStr">
         <is>
           <t>Colombia</t>
         </is>
       </c>
-      <c r="G1001" t="inlineStr">
+      <c r="G1001" s="0" t="inlineStr">
         <is>
           <t>Antioquia</t>
         </is>
       </c>
-      <c r="H1001" t="inlineStr">
+      <c r="H1001" s="0" t="inlineStr">
         <is>
           <t>Sabaneta</t>
         </is>
       </c>
-      <c r="I1001" t="inlineStr">
+      <c r="I1001" s="0" t="inlineStr">
         <is>
           <t>NO APLICA</t>
         </is>
       </c>
-      <c r="J1001" t="inlineStr">
+      <c r="J1001" s="0" t="inlineStr">
         <is>
           <t>5555555555</t>
         </is>
       </c>
-      <c r="K1001" t="inlineStr">
+      <c r="K1001" s="0" t="inlineStr">
         <is>
           <t>5555555</t>
         </is>
       </c>
-      <c r="L1001" t="inlineStr"/>
-      <c r="M1001" t="inlineStr"/>
+      <c r="L1001" s="0" t="inlineStr"/>
+      <c r="M1001" s="0" t="inlineStr"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="0" t="inlineStr"/>
+      <c r="B1002" s="0" t="inlineStr">
+        <is>
+          <t>Jennifer SAS</t>
+        </is>
+      </c>
+      <c r="C1002" s="0" t="inlineStr">
+        <is>
+          <t>Servicios</t>
+        </is>
+      </c>
+      <c r="D1002" s="0" t="inlineStr">
+        <is>
+          <t>Servicios</t>
+        </is>
+      </c>
+      <c r="E1002" s="0" t="inlineStr">
+        <is>
+          <t>nanannaa</t>
+        </is>
+      </c>
+      <c r="F1002" s="0" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="G1002" s="0" t="inlineStr">
+        <is>
+          <t>Antioquia</t>
+        </is>
+      </c>
+      <c r="H1002" s="0" t="inlineStr">
+        <is>
+          <t>Sabaneta</t>
+        </is>
+      </c>
+      <c r="I1002" s="0" t="inlineStr">
+        <is>
+          <t>NO APLICA</t>
+        </is>
+      </c>
+      <c r="J1002" s="0" t="inlineStr">
+        <is>
+          <t>5555555555</t>
+        </is>
+      </c>
+      <c r="K1002" s="0" t="inlineStr">
+        <is>
+          <t>5555555</t>
+        </is>
+      </c>
+      <c r="L1002" s="0" t="inlineStr"/>
+      <c r="M1002" s="0" t="inlineStr"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="0" t="inlineStr"/>
+      <c r="B1003" s="0" t="inlineStr">
+        <is>
+          <t>Jennifer SAS</t>
+        </is>
+      </c>
+      <c r="C1003" s="0" t="inlineStr">
+        <is>
+          <t>Servicios</t>
+        </is>
+      </c>
+      <c r="D1003" s="0" t="inlineStr">
+        <is>
+          <t>Servicios</t>
+        </is>
+      </c>
+      <c r="E1003" s="0" t="inlineStr">
+        <is>
+          <t>nanana</t>
+        </is>
+      </c>
+      <c r="F1003" s="0" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="G1003" s="0" t="inlineStr">
+        <is>
+          <t>Antioquia</t>
+        </is>
+      </c>
+      <c r="H1003" s="0" t="inlineStr">
+        <is>
+          <t>Sabaneta</t>
+        </is>
+      </c>
+      <c r="I1003" s="0" t="inlineStr">
+        <is>
+          <t>NO APLICA</t>
+        </is>
+      </c>
+      <c r="J1003" s="0" t="inlineStr">
+        <is>
+          <t>5555555555</t>
+        </is>
+      </c>
+      <c r="K1003" s="0" t="inlineStr">
+        <is>
+          <t>5555555</t>
+        </is>
+      </c>
+      <c r="L1003" s="0" t="inlineStr"/>
+      <c r="M1003" s="0" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -8536,7 +8646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB1000"/>
+  <dimension ref="A1:AB1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -40287,6 +40397,61 @@
       <c r="W1000" s="1" t="n"/>
       <c r="X1000" s="1" t="n"/>
       <c r="Y1000" s="1" t="n"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr"/>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>Jennifer SAS</t>
+        </is>
+      </c>
+      <c r="C1001" t="inlineStr">
+        <is>
+          <t>Servicios</t>
+        </is>
+      </c>
+      <c r="D1001" t="inlineStr">
+        <is>
+          <t>Servicios</t>
+        </is>
+      </c>
+      <c r="E1001" t="inlineStr">
+        <is>
+          <t>nanana</t>
+        </is>
+      </c>
+      <c r="F1001" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="G1001" t="inlineStr">
+        <is>
+          <t>Antioquia</t>
+        </is>
+      </c>
+      <c r="H1001" t="inlineStr">
+        <is>
+          <t>Sabaneta</t>
+        </is>
+      </c>
+      <c r="I1001" t="inlineStr">
+        <is>
+          <t>NO APLICA</t>
+        </is>
+      </c>
+      <c r="J1001" t="inlineStr">
+        <is>
+          <t>5555555555</t>
+        </is>
+      </c>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>5555555</t>
+        </is>
+      </c>
+      <c r="L1001" t="inlineStr"/>
+      <c r="M1001" t="inlineStr"/>
     </row>
   </sheetData>
   <hyperlinks>
